--- a/config_3.9/act_ty_lgfl_config.xlsx
+++ b/config_3.9/act_ty_lgfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_7.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>index|索引</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>remarks|备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,30 +209,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励三选一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2.活动任务每天0点重置，未领取的奖励视为自动放弃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -249,39 +221,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>980000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>480000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"shop_bay","jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xycd_btn_hdgz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"太阳眼镜","空调被","美的风扇",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"雨伞","矿泉水","鸭舌帽",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.活动时间：7月21日7:30-7月27日23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -297,11 +241,150 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"activity_icon_gift179_tyj","activity_icon_gift181_ktb","activity_icon_gift198_bht"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"activity_icon_gift44","activity_icon_gift199_bht","activity_icon_gift182_ysm"</t>
+    <r>
+      <t>在商城中购买3次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15元</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次30元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次50元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次98元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次2498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次998元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次198元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>088888,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_1","swjl_2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_3","swjl_4"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"美的多功能锅"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"美的电烤箱"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油","飞科剃须刀"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g"，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：3月9日8:00-3月15日23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +466,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -471,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,10 +866,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -788,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -847,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -885,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -941,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>19</v>
@@ -950,22 +1039,22 @@
         <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -973,34 +1062,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="16">
-        <v>21397</v>
+        <v>1000386</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="8"/>
@@ -1012,35 +1094,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="16">
-        <v>21398</v>
+        <v>1000387</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O3" s="15"/>
       <c r="Q3" s="8"/>
@@ -1051,27 +1126,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="16">
-        <v>21399</v>
+        <v>1000388</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="L4" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="15"/>
@@ -1083,29 +1158,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="16">
-        <v>21400</v>
+        <v>1000389</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="L5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="O5" s="15"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1115,36 +1192,158 @@
         <v>5</v>
       </c>
       <c r="B6" s="16">
-        <v>21401</v>
+        <v>1000390</v>
       </c>
       <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="L6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="O6" s="15"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
-        <v>20</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1000391</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1000392</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1000393</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1000394</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1158,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1185,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1196,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1204,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
